--- a/MortalQuizXML2Cs/MortalQuizQuestions.xlsx
+++ b/MortalQuizXML2Cs/MortalQuizQuestions.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\source\repos\MortalQuizXMLParser\MortalQuizXMLParser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\source\repos\MortalQuizXMLParser\MortalQuizXML2Cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04772B9-0D08-40F0-B293-00E0CD385E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459D78D-FA1D-4537-8763-8CC389917AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4B906B9-DE83-427E-8D2C-0AAD8C8E9A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A4B906B9-DE83-427E-8D2C-0AAD8C8E9A1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comic" sheetId="1" r:id="rId1"/>
-    <sheet name="Peliculas" sheetId="2" r:id="rId2"/>
+    <sheet name="Anime" sheetId="1" r:id="rId1"/>
+    <sheet name="Videogames" sheetId="2" r:id="rId2"/>
+    <sheet name="Comics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -69,9 +70,6 @@
     <t>cual es el nombre de superman</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Clarck Ken</t>
   </si>
   <si>
@@ -81,10 +79,10 @@
     <t>Bruce Willis</t>
   </si>
   <si>
-    <t>Comics</t>
-  </si>
-  <si>
-    <t>sadfsf</t>
+    <t>QuestionId</t>
+  </si>
+  <si>
+    <t>QuestionDifficulty</t>
   </si>
 </sst>
 </file>
@@ -120,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,82 +437,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870678B3-DCF5-4A5E-BB74-FE811DCC0F59}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="4" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,34 +530,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5B990-69FB-4052-8CF5-67945419BCF3}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD9941C-712A-41F6-9C6C-FDDD24DCD4CB}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
